--- a/data/03_interview_qualtrics_data/Plot_Results.xlsx
+++ b/data/03_interview_qualtrics_data/Plot_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schmaelz/Documents/01_GITHUB/nomcomm/GITHUB_PAPERS_WORKING/vr_billboard_p/data/03_interview_qualtrics_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444BACC7-D1E5-764F-A175-A2B1C05E49D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9A86E2-31C3-AC4E-9151-72640D8147CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" activeTab="1" xr2:uid="{2531B3FC-9703-E34D-940C-403564611433}"/>
   </bookViews>
@@ -1906,8 +1906,244 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Inception!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Free_Viewing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Inception!$F$16:$F$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>5.5E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.1999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.8999999999999997E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Inception!$F$16:$F$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>5.5E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.1999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.8999999999999997E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Inception!$A$16:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>passed_notfixated</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>passed_fixated</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>passed_incepted</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>passed_failedinception</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Inception!$B$16:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-A7B9-804B-9E3A-90492B925BA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Inception!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count_trash_bins</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Inception!$G$16:$G$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>3.0000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.04</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.8000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.9E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Inception!$G$16:$G$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>3.0000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.04</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.8000000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.9E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Inception!$A$16:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>passed_notfixated</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>passed_fixated</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>passed_incepted</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>passed_failedinception</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Inception!$C$16:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-A7B9-804B-9E3A-90492B925BA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Inception!$B$15</c:f>
@@ -2046,13 +2282,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A7B9-804B-9E3A-90492B925BA0}"/>
+              <c16:uniqueId val="{00000010-A7B9-804B-9E3A-90492B925BA0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Inception!$C$15</c:f>
@@ -2195,7 +2431,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A7B9-804B-9E3A-90492B925BA0}"/>
+              <c16:uniqueId val="{00000012-A7B9-804B-9E3A-90492B925BA0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2332,30 +2568,9 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -2374,547 +2589,344 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Inception!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Free_Viewing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Inception!$A$16:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>passed_notfixated</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>passed_fixated</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>passed_incepted</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>passed_failedinception</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Inception!$B$46:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.21199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8783-2043-8F81-0AD5B0067AAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Inception!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count_trash_bins</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Inception!$A$16:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>passed_notfixated</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>passed_fixated</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>passed_incepted</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>passed_failedinception</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Inception!$C$46:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8783-2043-8F81-0AD5B0067AAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="259436512"/>
+        <c:axId val="295389823"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="259436512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="295389823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="295389823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="259436512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.8"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
         <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3302,6 +3314,44 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>189386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>720112</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>42750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F380F32E-4BEC-E440-9B37-432E53B1BB54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3624,7 +3674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEAA9A33-3035-2548-96D3-621E394DD69F}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="86" workbookViewId="0">
+    <sheetView topLeftCell="A51" zoomScale="86" workbookViewId="0">
       <selection activeCell="C39" sqref="B39:C39"/>
     </sheetView>
   </sheetViews>
@@ -4070,8 +4120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E558116A-6395-DB47-A615-870B24B5C2DE}">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
